--- a/TableData/Table7.xlsx
+++ b/TableData/Table7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Master Uni Ulm\2. Semester\Project Economic Data Science\ChristophKiesl.github.io\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8326EB1E-20DF-4C43-B6EE-31DF0A193B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB57B19-D17B-4656-B57C-7E1BFDF410A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A588F387-687F-4B10-8CB4-592CC3147ECD}"/>
   </bookViews>
@@ -124,12 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -467,7 +468,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +502,15 @@
       <c r="B2">
         <v>2016</v>
       </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>9.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -509,6 +519,15 @@
       <c r="B3">
         <v>2018</v>
       </c>
+      <c r="C3">
+        <v>9.5</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -516,6 +535,15 @@
       </c>
       <c r="B4">
         <v>2018</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/TableData/Table7.xlsx
+++ b/TableData/Table7.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Master Uni Ulm\2. Semester\Project Economic Data Science\ChristophKiesl.github.io\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WS Jiang\Desktop\draft\ChristophKiesl.github.io\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB57B19-D17B-4656-B57C-7E1BFDF410A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C7258-1F87-42EA-ABA4-BC719202D34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A588F387-687F-4B10-8CB4-592CC3147ECD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A588F387-687F-4B10-8CB4-592CC3147ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,45 +51,49 @@
     <t>GameStop Corp.</t>
   </si>
   <si>
+    <t>COPART INC</t>
+  </si>
+  <si>
+    <t>Data Storage Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	AGILYSYS INC</t>
+  </si>
+  <si>
+    <t>Kosmos Energy Ltd.</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
     <t>FOCUS UNIVERSAL INC.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BIG LOTS INC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WEX Inc.</t>
-  </si>
-  <si>
-    <t>COPART INC</t>
-  </si>
-  <si>
-    <t>Data Storage Corp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	AGILYSYS INC</t>
-  </si>
-  <si>
-    <t>Kosmos Energy Ltd.</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Relevance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Coherence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -99,8 +101,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -124,16 +133,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,17 +476,17 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.4140625" customWidth="1"/>
+    <col min="3" max="3" width="22.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -508,11 +516,11 @@
       <c r="D2">
         <v>9.5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -529,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -546,63 +554,91 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2018</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2022</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2020</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TableData/Table7.xlsx
+++ b/TableData/Table7.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WS Jiang\Desktop\draft\ChristophKiesl.github.io\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabler Arbeitsplatz\Documents\GitHub\ChristophKiesl.github.io\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C7258-1F87-42EA-ABA4-BC719202D34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A588F387-687F-4B10-8CB4-592CC3147ECD}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,12 +87,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -101,13 +100,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -141,7 +140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,21 +471,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F113A3DD-D037-4A12-8E9A-B5C67656B34E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.4140625" customWidth="1"/>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,7 +502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -520,7 +519,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -537,7 +536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -554,7 +553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -571,7 +570,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -588,7 +587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -605,23 +604,41 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>2023</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>8.5</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>2019</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>8.5</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -629,7 +646,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>8</v>
       </c>

--- a/TableData/Table7.xlsx
+++ b/TableData/Table7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabler Arbeitsplatz\Documents\GitHub\ChristophKiesl.github.io\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Master Uni Ulm\2. Semester\Project Economic Data Science\ChristophKiesl.github.io\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8C7BEB-3B1B-4F76-A25A-3D512ECD1233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Company_Name</t>
   </si>
@@ -56,39 +48,59 @@
     <t>Data Storage Corp</t>
   </si>
   <si>
-    <t xml:space="preserve">	AGILYSYS INC</t>
-  </si>
-  <si>
     <t>Kosmos Energy Ltd.</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Relevance</t>
+    <t>Accession ID</t>
+  </si>
+  <si>
+    <t>0000897101-17-000402</t>
+  </si>
+  <si>
+    <t>0001615774-19-005785</t>
+  </si>
+  <si>
+    <t>0001326380-18-000033</t>
   </si>
   <si>
     <t>FOCUS UNIVERSAL INC.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001683168-21-001026</t>
   </si>
   <si>
     <t>BIG LOTS INC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000768835-18-000030</t>
   </si>
   <si>
     <t>WEX Inc.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coherence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001309108-23-000022</t>
+  </si>
+  <si>
+    <t>0000900075-23-000034</t>
+  </si>
+  <si>
+    <t>AGILYSYS INC</t>
+  </si>
+  <si>
+    <t>0001731122-20-000381</t>
+  </si>
+  <si>
+    <t>0000078749-17-000021</t>
+  </si>
+  <si>
+    <t>0001509991-21-000031</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,186 +483,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2016</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>9.5</v>
-      </c>
-      <c r="E2">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="C6">
         <v>2018</v>
       </c>
-      <c r="C3">
-        <v>9.5</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2018</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>2020</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>2018</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
         <v>2022</v>
       </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2023</v>
       </c>
-      <c r="C8">
-        <v>8.5</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2019</v>
       </c>
-      <c r="C9">
-        <v>8.5</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
+      <c r="C11">
         <v>2020</v>
       </c>
     </row>
